--- a/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
@@ -1,156 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>486001</t>
-  </si>
-  <si>
-    <t>486002</t>
-  </si>
-  <si>
-    <t>009225</t>
-  </si>
-  <si>
-    <t>009226</t>
-  </si>
-  <si>
-    <t>539001</t>
-  </si>
-  <si>
-    <t>工银瑞信中国机会全球配置股票(QDII)</t>
-  </si>
-  <si>
-    <t>工银全球精选股票(QDII)</t>
-  </si>
-  <si>
-    <t>天弘中证中美互联网指数（QDII）A</t>
-  </si>
-  <si>
-    <t>天弘中证中美互联网指数（QDII）C</t>
-  </si>
-  <si>
-    <t>建信全球机遇混合QDII</t>
-  </si>
-  <si>
-    <t>8.80</t>
-  </si>
-  <si>
-    <t>5.69</t>
-  </si>
-  <si>
-    <t>0.91</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>94.74</t>
-  </si>
-  <si>
-    <t>95.01</t>
-  </si>
-  <si>
-    <t>95.18</t>
-  </si>
-  <si>
-    <t>85.46</t>
-  </si>
-  <si>
-    <t>2.05</t>
-  </si>
-  <si>
-    <t>2.96</t>
-  </si>
-  <si>
-    <t>9.12</t>
-  </si>
-  <si>
-    <t>4.08</t>
-  </si>
-  <si>
-    <t>0.1804</t>
-  </si>
-  <si>
-    <t>0.1684</t>
-  </si>
-  <si>
-    <t>0.0830</t>
-  </si>
-  <si>
-    <t>0.0237</t>
-  </si>
-  <si>
-    <t>0.0102</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -173,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -475,167 +446,683 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1731</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>10</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.93</v>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6691</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1181,13 +1224,385 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>5</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1533,7 +1534,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1544,17 +1545,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1564,14 +1585,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.74</v>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2030</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1580,14 +1623,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.93</v>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1596,13 +1661,363 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>5</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1932,7 +1933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1943,17 +1944,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1963,14 +1984,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1652</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -1979,14 +2022,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.74</v>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1995,14 +2060,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.93</v>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2011,13 +2098,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.47</v>
       </c>
     </row>

--- a/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
@@ -6,12 +6,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,243 +455,113 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1804</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>486002</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.01</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1684</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>95.18</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0830</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.74</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>95.18</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>9.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0237</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.93</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>539001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>建信全球机遇混合QDII</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.46</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0102</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -701,7 +571,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,7 +592,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -762,26 +632,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.67</t>
+          <t>95.05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.75</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1731</t>
+          <t>0.1652</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -790,36 +660,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>95.05</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1652</t>
+          <t>0.0576</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -828,36 +698,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>012751</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1652</t>
+          <t>0.0263</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -866,36 +736,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>012752</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7.98</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1652</t>
+          <t>0.0263</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -904,225 +774,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>486002</t>
+          <t>012753</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银全球精选股票(QDII)</t>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.15</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>97.17</t>
+          <t>85.04</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>6.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1617</t>
+          <t>0.0263</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.67</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0452</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>539001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信全球机遇混合QDII</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>72.09</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012751</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>72.09</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012752</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信纳斯达克100指数（QDII）C 人民币</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>72.09</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012753</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>72.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.41</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1188,36 +868,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.56</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6691</t>
+          <t>0.2030</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1226,36 +906,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012751</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5129</t>
+          <t>0.1476</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1264,36 +944,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012752</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5129</t>
+          <t>0.1476</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1302,36 +982,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012753</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5129</t>
+          <t>0.1476</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1340,36 +1020,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>486002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1637</t>
+          <t>0.1341</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1378,36 +1058,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1637</t>
+          <t>0.0651</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1416,32 +1096,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>486002</t>
+          <t>012751</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银全球精选股票(QDII)</t>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.42</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1514</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1454,32 +1134,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>012752</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0489</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1492,32 +1172,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>012753</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1586,36 +1266,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>31.56</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2030</t>
+          <t>0.6691</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1624,36 +1304,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>012751</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1476</t>
+          <t>0.5129</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1662,36 +1342,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>012752</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.1476</t>
+          <t>0.5129</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1700,36 +1380,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>012753</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.65</t>
+          <t>6.82</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.85</t>
+          <t>93.56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>7.52</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.1476</t>
+          <t>0.5129</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -1738,36 +1418,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>486002</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银全球精选股票(QDII)</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.23</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>94.60</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1341</t>
+          <t>0.1637</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1776,36 +1456,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>7.72</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>94.90</t>
+          <t>91.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>11.03</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0651</t>
+          <t>0.1637</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1814,32 +1494,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012751</t>
+          <t>486002</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+          <t>工银全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>95.42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.1514</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1852,32 +1532,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012752</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>95.12</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.0489</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1890,32 +1570,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>012753</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.34</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>88.02</t>
+          <t>95.12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>7.55</t>
+          <t>9.23</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0257</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1933,7 +1613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1954,7 +1634,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1994,26 +1674,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>94.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>10.75</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1652</t>
+          <t>0.1731</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2022,36 +1702,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>95.05</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>8.47</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0576</t>
+          <t>0.1652</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -2060,36 +1740,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012751</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.1652</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2098,36 +1778,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012752</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>7.98</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>85.04</t>
+          <t>94.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>6.26</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0263</t>
+          <t>0.1652</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2136,35 +1816,225 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1617</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>012753</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0263</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>72.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -2179,112 +2049,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3</v>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>8.80</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.92</v>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1684</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>9</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.74</v>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.93</v>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>95.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0237</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.47</v>
+          <t>539001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信全球机遇混合QDII</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
+++ b/数据整理/stocks/其他/US0231351067-亚马逊公司.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.92</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>2.74</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.93</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.47</v>
       </c>
     </row>
@@ -566,6 +583,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银全球股票（QDII）美元</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银全球股票（QDII）港币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票（QDII）人民币</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银全球精选股票（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1068</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -803,404 +1218,6 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009225</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>11.03</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.2030</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009562</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1476</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>486001</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1476</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009563</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1476</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>486002</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>工银全球精选股票(QDII)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1341</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009226</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.59</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>11.03</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0651</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>012751</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>012752</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>建信纳斯达克100指数（QDII）C 人民币</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>012753</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>88.02</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1266,36 +1283,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009563</t>
+          <t>009225</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+          <t>天弘中证中美互联网指数（QDII）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>31.56</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6691</t>
+          <t>0.2030</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -1304,36 +1321,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>012751</t>
+          <t>009562</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5129</t>
+          <t>0.1476</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1342,36 +1359,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>012752</t>
+          <t>486001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5129</t>
+          <t>0.1476</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1380,36 +1397,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012753</t>
+          <t>009563</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>6.82</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>93.56</t>
+          <t>92.85</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7.52</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5129</t>
+          <t>0.1476</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1418,36 +1435,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>486001</t>
+          <t>486002</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+          <t>工银全球精选股票(QDII)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.1637</t>
+          <t>0.1341</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -1456,36 +1473,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>009562</t>
+          <t>009226</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+          <t>天弘中证中美互联网指数（QDII）C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.72</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>91.90</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1637</t>
+          <t>0.0651</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1494,32 +1511,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>486002</t>
+          <t>012751</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>工银全球精选股票(QDII)</t>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>95.42</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>3.04</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.1514</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1532,32 +1549,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009226</t>
+          <t>012752</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）C</t>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0489</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1570,32 +1587,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009225</t>
+          <t>012753</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘中证中美互联网指数（QDII）A</t>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>95.12</t>
+          <t>88.02</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>9.23</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0092</t>
+          <t>0.0257</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1608,6 +1625,404 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009563</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)港币</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>31.56</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6691</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>012751</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）A 美元现汇</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012752</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 人民币</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012753</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信纳斯达克100指数（QDII）C 美元现汇</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5129</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>486001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009562</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信中国机会全球配置股票(QDII)美元</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>486002</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银全球精选股票(QDII)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1514</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009226</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009225</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘中证中美互联网指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2043,7 +2458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
